--- a/Pengujian/hp_random_result.xlsx
+++ b/Pengujian/hp_random_result.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\Pengujian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skripsi\Buku\Thesis\Pengujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hp_random_result" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>Data: House Price</t>
   </si>
@@ -121,13 +122,25 @@
   </si>
   <si>
     <t>Time. Logistic Regression</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Reg.Tree</t>
+  </si>
+  <si>
+    <t>Recommender</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +271,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -619,7 +647,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -627,6 +655,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -951,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,9 +2620,18 @@
         <f t="shared" si="10"/>
         <v>1.6672167208173019</v>
       </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
+      <c r="H65" s="2">
+        <f>AVERAGE(H60:H64)</f>
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" ref="I65:J65" si="12">AVERAGE(I60:I64)</f>
+        <v>0.38666666666666638</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" si="12"/>
+        <v>6.0741682110349897</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -2620,19 +2661,983 @@
         <f t="shared" si="10"/>
         <v>0.68413490219229089</v>
       </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
+      <c r="H66" s="2">
+        <f>AVERAGE(H61:H65)</f>
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" ref="I66" si="13">AVERAGE(I61:I65)</f>
+        <v>0.39733333333333298</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" ref="J66" si="14">AVERAGE(J61:J65)</f>
+        <v>7.0833049961292929</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A58:J58"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A32:J32"/>
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A58:J58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="H2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>72884.994836350699</v>
+      </c>
+      <c r="J2" s="4">
+        <v>80489.213329662001</v>
+      </c>
+      <c r="K2" s="4">
+        <v>68461.580586874508</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.46666666666666645</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1.0284842855634717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>78135.349686986403</v>
+      </c>
+      <c r="C3" s="2">
+        <v>87082.9439444085</v>
+      </c>
+      <c r="D3" s="2">
+        <v>56124.628343982899</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.0087926362953801</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>68902.014747889349</v>
+      </c>
+      <c r="J3" s="4">
+        <v>74698.183022513738</v>
+      </c>
+      <c r="K3" s="4">
+        <v>71347.220616836799</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.3333333333333332</v>
+      </c>
+      <c r="M3" s="4">
+        <v>4.7208990422961445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>74503.122364554307</v>
+      </c>
+      <c r="C4" s="2">
+        <v>73350.660100598005</v>
+      </c>
+      <c r="D4" s="2">
+        <v>57292.053184198201</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4.8943765688045398</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>70509.612797363603</v>
+      </c>
+      <c r="J4" s="4">
+        <v>80926.103266176928</v>
+      </c>
+      <c r="K4" s="4">
+        <v>84199.764585322162</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="4">
+        <v>5.4204116865675029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>81866.332739974605</v>
+      </c>
+      <c r="C5" s="2">
+        <v>88050.0209100879</v>
+      </c>
+      <c r="D5" s="2">
+        <v>101167.836393102</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5.4114637092990403</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>62010.055677954202</v>
+      </c>
+      <c r="J5" s="4">
+        <v>83123.471432514896</v>
+      </c>
+      <c r="K5" s="4">
+        <v>64653.977586093897</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.53333333333333321</v>
+      </c>
+      <c r="M5" s="4">
+        <v>8.4393039786056114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>59431.940387004601</v>
+      </c>
+      <c r="C6" s="2">
+        <v>79175.231412548004</v>
+      </c>
+      <c r="D6" s="2">
+        <v>52796.125061243998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8.1769769136482999</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>61729.227189093173</v>
+      </c>
+      <c r="J6" s="4">
+        <v>84112.623050052163</v>
+      </c>
+      <c r="K6" s="4">
+        <v>57336.340739531748</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M6" s="4">
+        <v>10.76174206214222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>61929.9614264845</v>
+      </c>
+      <c r="C7" s="2">
+        <v>87171.671795946299</v>
+      </c>
+      <c r="D7" s="2">
+        <v>87311.926009197894</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10.5484837577413</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="4">
+        <v>67207.181049730207</v>
+      </c>
+      <c r="J7" s="4">
+        <v>80669.918820183957</v>
+      </c>
+      <c r="K7" s="4">
+        <v>69199.776822931817</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="M7" s="4">
+        <v>6.0741682110349897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2">
+        <f>AVERAGE(B3:B7)</f>
+        <v>71173.341321000888</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:E8" si="0">AVERAGE(C3:C7)</f>
+        <v>82966.10563271775</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>70938.513798344997</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="H8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="4">
+        <v>6113.100048657313</v>
+      </c>
+      <c r="J8" s="4">
+        <v>6052.395745118245</v>
+      </c>
+      <c r="K8" s="4">
+        <v>15559.987817029902</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="M8" s="4">
+        <v>7.0833049961292929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2">
+        <f>_xlfn.STDEV.P(B3:B7)</f>
+        <v>8912.885453538589</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:D9" si="1">_xlfn.STDEV.P(C3:C7)</f>
+        <v>5784.6150973022286</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>19579.192683054647</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>66368.726862507203</v>
+      </c>
+      <c r="C11" s="2">
+        <v>56055.235058643499</v>
+      </c>
+      <c r="D11" s="2">
+        <v>84745.612925142195</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.0275677078446099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>69306.189142732197</v>
+      </c>
+      <c r="C12" s="2">
+        <v>73609.626958938505</v>
+      </c>
+      <c r="D12" s="2">
+        <v>79262.839841819601</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4.5875722823027099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>68976.375185450204</v>
+      </c>
+      <c r="C13" s="2">
+        <v>78467.808283007107</v>
+      </c>
+      <c r="D13" s="2">
+        <v>89642.782163251497</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5.6527715058177597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>64985.0617112814</v>
+      </c>
+      <c r="C14" s="2">
+        <v>85315.108495191205</v>
+      </c>
+      <c r="D14" s="2">
+        <v>93296.400607159303</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8.3420026889602994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>57012.054484518601</v>
+      </c>
+      <c r="C15" s="2">
+        <v>78258.781992764605</v>
+      </c>
+      <c r="D15" s="2">
+        <v>40619.627068941903</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>11.0223917524866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <f>AVERAGE(B11:B15)</f>
+        <v>65329.681477297927</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:E16" si="2">AVERAGE(C11:C15)</f>
+        <v>74341.312157708991</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>77513.452521262894</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.26666666666666661</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2">
+        <f>_xlfn.STDEV.P(B11:B15)</f>
+        <v>4460.7686580005502</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:D17" si="3">_xlfn.STDEV.P(C11:C15)</f>
+        <v>9876.3831956872855</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="3"/>
+        <v>19040.698224892985</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>88348.250992977293</v>
+      </c>
+      <c r="C19" s="2">
+        <v>85028.512084458096</v>
+      </c>
+      <c r="D19" s="2">
+        <v>52881.809917869599</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.0010013957961901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B20" s="2">
+        <v>65155.473275325203</v>
+      </c>
+      <c r="C20" s="2">
+        <v>75326.531148329901</v>
+      </c>
+      <c r="D20" s="2">
+        <v>89336.393978370499</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4.8822205328657304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B21" s="2">
+        <v>70963.163464593003</v>
+      </c>
+      <c r="C21" s="2">
+        <v>85904.632006005399</v>
+      </c>
+      <c r="D21" s="2">
+        <v>90882.308096340596</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5.3759702396312203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>68801.0140922336</v>
+      </c>
+      <c r="C22" s="2">
+        <v>85777.767088052598</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45684.172189274803</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8.5182560464952601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>58213.899605713697</v>
+      </c>
+      <c r="C23" s="2">
+        <v>84025.1673074383</v>
+      </c>
+      <c r="D23" s="2">
+        <v>47832.832945156501</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10.745438004363301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <f>AVERAGE(B19:B23)</f>
+        <v>70296.360286168565</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" ref="C24:E24" si="4">AVERAGE(C19:C23)</f>
+        <v>83212.521926856862</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="4"/>
+        <v>65323.503425402407</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="4"/>
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
+        <f>_xlfn.STDEV.P(B19:B23)</f>
+        <v>10009.655540147523</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" ref="C25:D25" si="5">_xlfn.STDEV.P(C19:C23)</f>
+        <v>3999.3750197096656</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="5"/>
+        <v>20377.899948239326</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>63882.477766890202</v>
+      </c>
+      <c r="C27" s="2">
+        <v>86624.646379663696</v>
+      </c>
+      <c r="D27" s="2">
+        <v>76540.399679614406</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.97404141643988795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>66015.980448359594</v>
+      </c>
+      <c r="C28" s="2">
+        <v>69855.857667636999</v>
+      </c>
+      <c r="D28" s="2">
+        <v>57567.046515890303</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4.5962784144224402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B29" s="2">
+        <v>63600.661672507696</v>
+      </c>
+      <c r="C29" s="2">
+        <v>75159.088128845906</v>
+      </c>
+      <c r="D29" s="2">
+        <v>58076.7007405189</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5.3056885292530698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="B30" s="2">
+        <v>62158.699215281202</v>
+      </c>
+      <c r="C30" s="2">
+        <v>85394.1742912958</v>
+      </c>
+      <c r="D30" s="2">
+        <v>73018.742113316403</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F30" s="2">
+        <v>8.6068557491554998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B31" s="2">
+        <v>61633.671617594897</v>
+      </c>
+      <c r="C31" s="2">
+        <v>86608.700897910094</v>
+      </c>
+      <c r="D31" s="2">
+        <v>58681.785718290601</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>10.542934661490101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2">
+        <f>AVERAGE(B27:B31)</f>
+        <v>63458.298144126718</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" ref="C32:E32" si="6">AVERAGE(C27:C31)</f>
+        <v>80728.493473070499</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="6"/>
+        <v>64776.934953526128</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="6"/>
+        <v>0.73333333333333317</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="2">
+        <f>_xlfn.STDEV.P(B27:B31)</f>
+        <v>1533.6331916822121</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" ref="C33:D33" si="7">_xlfn.STDEV.P(C27:C31)</f>
+        <v>6933.1453352788394</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="7"/>
+        <v>8250.2480158258604</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>67690.168872392402</v>
+      </c>
+      <c r="C35" s="2">
+        <v>87654.729181136194</v>
+      </c>
+      <c r="D35" s="2">
+        <v>72015.452067763399</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1.13101827144129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B36" s="2">
+        <v>69529.3085084755</v>
+      </c>
+      <c r="C36" s="2">
+        <v>81348.239237065296</v>
+      </c>
+      <c r="D36" s="2">
+        <v>73277.7695639054</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F36" s="2">
+        <v>4.6440474130852998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B37" s="2">
+        <v>67141.5309242925</v>
+      </c>
+      <c r="C37" s="2">
+        <v>77048.967002938298</v>
+      </c>
+      <c r="D37" s="2">
+        <v>81229.195533397797</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5.3561644488364299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="B38" s="2">
+        <v>54673.562983970201</v>
+      </c>
+      <c r="C38" s="2">
+        <v>79955.075875486902</v>
+      </c>
+      <c r="D38" s="2">
+        <v>58474.447959475001</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F38" s="2">
+        <v>8.5524284947686908</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>69856.548811154207</v>
+      </c>
+      <c r="C39" s="2">
+        <v>84498.793256201505</v>
+      </c>
+      <c r="D39" s="2">
+        <v>52235.531956071798</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>10.949462134629799</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="2">
+        <f>AVERAGE(B35:B39)</f>
+        <v>65778.224020056965</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" ref="C40:E40" si="8">AVERAGE(C35:C39)</f>
+        <v>82101.160910565639</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="8"/>
+        <v>67446.479416122675</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.3999999999999998</v>
+      </c>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="2">
+        <f>_xlfn.STDEV.P(B35:B39)</f>
+        <v>5648.5573999176877</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" ref="C41:D41" si="9">_xlfn.STDEV.P(C35:C39)</f>
+        <v>3668.4600776132111</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="9"/>
+        <v>10551.900213136701</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A34:F34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>